--- a/Documents/teves user.xlsx
+++ b/Documents/teves user.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20413"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20414"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\GitHub\TEVES-Laravel\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{BEDB5089-3EB5-409A-B77E-56D9C81ACAF6}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1CAD3D9F-76C5-40FC-B83A-3DC280976AC5}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11330" xr2:uid="{2B484FCE-43EC-41CA-B4E3-A57494EDCEFF}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11325" xr2:uid="{2B484FCE-43EC-41CA-B4E3-A57494EDCEFF}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -63,9 +63,6 @@
     <t>*** Administrator - Can Manage all of the Content Under the Maintenance Menu</t>
   </si>
   <si>
-    <t>*** Administrator - Can Assign a Specific Branch Access to Supervisor and Encoder/USer</t>
-  </si>
-  <si>
     <t>*** Administrator - By Default can access all Branches</t>
   </si>
   <si>
@@ -88,13 +85,16 @@
   </si>
   <si>
     <t>Sales Order</t>
+  </si>
+  <si>
+    <t>*** Administrator - Can Assign a Specific Branch Access to Supervisor and Encoder/User</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -102,16 +102,35 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1" tint="4.9989318521683403E-2"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -119,23 +138,86 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -451,186 +533,192 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B6DB0692-2FEC-4BB0-96E6-74332BF52185}">
-  <dimension ref="A1:E15"/>
+  <dimension ref="A1:E14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+      <selection activeCell="F29" sqref="F29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="2" width="17" customWidth="1"/>
     <col min="3" max="3" width="19" customWidth="1"/>
-    <col min="4" max="4" width="23.54296875" customWidth="1"/>
+    <col min="4" max="4" width="23.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="B1" s="3" t="s">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A2" s="1" t="s">
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A3" s="2"/>
-      <c r="B3" s="2"/>
-      <c r="C3" s="2"/>
-      <c r="D3" s="2"/>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B3" s="7"/>
+      <c r="C3" s="7"/>
+      <c r="D3" s="8"/>
+      <c r="E3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="B4" s="4"/>
-      <c r="C4" s="4"/>
-      <c r="D4" s="4"/>
+        <v>5</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>10</v>
+      </c>
       <c r="E4" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A5" t="s">
-        <v>5</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D5" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D5" s="3" t="s">
         <v>10</v>
       </c>
       <c r="E5" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A6" t="s">
-        <v>8</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E6" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A7" t="s">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A8" t="s">
+      <c r="B6" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A9" t="s">
+      <c r="B7" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B9" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="B10" s="2"/>
+      <c r="B8" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" s="9"/>
+      <c r="B9" s="9"/>
+      <c r="C9" s="9"/>
+      <c r="D9" s="9"/>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>9</v>
+      </c>
       <c r="C10" s="2"/>
       <c r="D10" s="2"/>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A11" t="s">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="B11" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A12" t="s">
+      <c r="B11" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C11" s="2"/>
+      <c r="D11" s="2"/>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C12" s="2"/>
+      <c r="D12" s="2"/>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="B12" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A13" t="s">
-        <v>20</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A14" t="s">
+      <c r="B13" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C13" s="2"/>
+      <c r="D13" s="2"/>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="B14" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A15" t="s">
-        <v>19</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D15" s="2" t="s">
+      <c r="B14" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C14" s="2"/>
+      <c r="D14" s="3" t="s">
         <v>9</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="3">
     <mergeCell ref="B1:D1"/>
-    <mergeCell ref="A4:D4"/>
+    <mergeCell ref="A3:D3"/>
+    <mergeCell ref="A9:D9"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Documents/teves user.xlsx
+++ b/Documents/teves user.xlsx
@@ -1,100 +1,144 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20414"/>
-  <workbookPr defaultThemeVersion="166925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="20415"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\GitHub\TEVES-Laravel\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1CAD3D9F-76C5-40FC-B83A-3DC280976AC5}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{27511677-2797-4349-BBAF-546F87DA0ED0}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11325" xr2:uid="{2B484FCE-43EC-41CA-B4E3-A57494EDCEFF}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="27945" windowHeight="12180" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="35">
+  <si>
+    <t>User Type</t>
+  </si>
+  <si>
+    <t>Rights</t>
+  </si>
+  <si>
+    <t>Administrator</t>
+  </si>
   <si>
     <t>Supervisor</t>
   </si>
   <si>
+    <t>Accounting Staff</t>
+  </si>
+  <si>
     <t>Encoder</t>
   </si>
   <si>
-    <t>User Type</t>
-  </si>
-  <si>
-    <t>Administrator</t>
+    <t>Maintenance</t>
+  </si>
+  <si>
+    <t>*** Administrator - Can Manage all of the Content Under the Maintenance Menu</t>
+  </si>
+  <si>
+    <t>Product</t>
+  </si>
+  <si>
+    <t>YES</t>
+  </si>
+  <si>
+    <t>NO</t>
+  </si>
+  <si>
+    <t>*** Administrator - Can Assign a Specific Branch Access to Supervisor and Encoder/User</t>
+  </si>
+  <si>
+    <t>Branch</t>
+  </si>
+  <si>
+    <t>Yes (Only for designated branch)</t>
+  </si>
+  <si>
+    <t>*** Administrator - By Default can access all Branches</t>
+  </si>
+  <si>
+    <t>Client</t>
+  </si>
+  <si>
+    <t>Supplier</t>
   </si>
   <si>
     <t>User Account</t>
   </si>
   <si>
-    <t>Product</t>
-  </si>
-  <si>
-    <t>Client</t>
-  </si>
-  <si>
-    <t>Supplier</t>
-  </si>
-  <si>
-    <t>Branch</t>
-  </si>
-  <si>
-    <t>YES</t>
-  </si>
-  <si>
-    <t>NO</t>
-  </si>
-  <si>
-    <t>*** Administrator - Can Manage all of the Content Under the Maintenance Menu</t>
-  </si>
-  <si>
-    <t>*** Administrator - By Default can access all Branches</t>
-  </si>
-  <si>
-    <t>Rights</t>
-  </si>
-  <si>
-    <t>Maintenance</t>
-  </si>
-  <si>
     <t>Billing</t>
   </si>
   <si>
+    <t>YES (View Only)</t>
+  </si>
+  <si>
+    <t>YES (cannot delete, edit after 24hours)</t>
+  </si>
+  <si>
+    <t>YES (For encode only , CAN edit or delete within 1hour from encode)</t>
+  </si>
+  <si>
     <t>Receivable</t>
   </si>
   <si>
+    <t>YES ( View &amp; Print only)</t>
+  </si>
+  <si>
+    <t>YES (View and Print only for Station-In-Charge)</t>
+  </si>
+  <si>
+    <t>Sales Order</t>
+  </si>
+  <si>
     <t>Purchase Order</t>
   </si>
   <si>
     <t>Cashier's Report</t>
   </si>
   <si>
-    <t>Sales Order</t>
-  </si>
-  <si>
-    <t>*** Administrator - Can Assign a Specific Branch Access to Supervisor and Encoder/User</t>
+    <t>YES (View only)</t>
+  </si>
+  <si>
+    <t>FOR SALES ORDER UNDER RECEIVABLE ONLY, ACCOUNTING STAFF CAN VIEW SALES ORDER  AND PURCHASE ORDER</t>
+  </si>
+  <si>
+    <t>YES - Must be NO</t>
+  </si>
+  <si>
+    <t>Yes (Only for designated branch)  - Must be NO</t>
+  </si>
+  <si>
+    <t>Encoded kng alin lang ang enencode nya sya lng maka pag edit</t>
+  </si>
+  <si>
+    <t>For Verification if I limit ng one our ang pag edit or delete</t>
+  </si>
+  <si>
+    <t>.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="5">
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -106,11 +150,26 @@
       <sz val="11"/>
       <color theme="1" tint="4.9989318521683403E-2"/>
       <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -129,6 +188,18 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="5">
     <border>
@@ -140,29 +211,29 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right/>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
@@ -170,23 +241,23 @@
       <left/>
       <right/>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
@@ -194,31 +265,57 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -279,7 +376,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -312,26 +409,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -364,23 +444,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -523,200 +586,265 @@
   </a:themeElements>
   <a:objectDefaults/>
   <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
-    </a:ext>
-  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B6DB0692-2FEC-4BB0-96E6-74332BF52185}">
-  <dimension ref="A1:E14"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:F17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F29" sqref="F29"/>
+    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="2" width="17" customWidth="1"/>
-    <col min="3" max="3" width="19" customWidth="1"/>
-    <col min="4" max="4" width="23.5703125" customWidth="1"/>
+    <col min="3" max="3" width="22.7109375" customWidth="1"/>
+    <col min="4" max="4" width="19" customWidth="1"/>
+    <col min="5" max="5" width="23.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B1" s="1" t="s">
+    <row r="1" spans="1:6">
+      <c r="B1" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="8"/>
+      <c r="D1" s="8"/>
+      <c r="E1" s="8"/>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="B2" s="3" t="s">
+      <c r="C2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="6" t="s">
+      <c r="D2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="14"/>
+      <c r="C3" s="11"/>
+      <c r="D3" s="11"/>
+      <c r="E3" s="12"/>
+      <c r="F3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="E4" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="F4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="30">
+      <c r="A5" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="D5" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="E5" s="17" t="s">
+        <v>31</v>
+      </c>
+      <c r="F5" t="s">
         <v>14</v>
       </c>
-      <c r="B3" s="7"/>
-      <c r="C3" s="7"/>
-      <c r="D3" s="8"/>
-      <c r="E3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E4" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E5" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D8" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B6" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="D6" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="E6" s="15" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B7" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="D7" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="E7" s="15" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B8" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="C8" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="D8" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="E8" s="15" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
       <c r="A9" s="9"/>
-      <c r="B9" s="9"/>
+      <c r="B9" s="16"/>
       <c r="C9" s="9"/>
       <c r="D9" s="9"/>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C10" s="2"/>
-      <c r="D10" s="2"/>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C11" s="2"/>
-      <c r="D11" s="2"/>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" s="4" t="s">
+      <c r="E9" s="9"/>
+    </row>
+    <row r="10" spans="1:6" ht="60">
+      <c r="A10" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B10" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="C10" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="B12" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C12" s="2"/>
-      <c r="D12" s="2"/>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C13" s="2"/>
-      <c r="D13" s="2"/>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C14" s="2"/>
-      <c r="D14" s="3" t="s">
-        <v>9</v>
+      <c r="D10" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="E10" s="6" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="30">
+      <c r="A11" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="E11" s="6" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="30">
+      <c r="A12" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B12" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="E12" s="15" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="30">
+      <c r="A13" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="B13" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D13" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="E13" s="15" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="30">
+      <c r="A14" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B14" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="C14" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="D14" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="E14" s="20" t="s">
+        <v>13</v>
+      </c>
+      <c r="F14" s="19" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="B15" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="D15" s="19" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="17" spans="5:6">
+      <c r="E17" s="21"/>
+      <c r="F17" s="19" t="s">
+        <v>33</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="3">
-    <mergeCell ref="B1:D1"/>
-    <mergeCell ref="A3:D3"/>
-    <mergeCell ref="A9:D9"/>
+  <mergeCells count="1">
+    <mergeCell ref="B1:E1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/Documents/teves user.xlsx
+++ b/Documents/teves user.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\GitHub\TEVES-Laravel\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{27511677-2797-4349-BBAF-546F87DA0ED0}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2EBA4097-1917-467B-B02A-47472E5B162E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="27945" windowHeight="12180" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -131,12 +131,19 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -169,7 +176,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -200,6 +207,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="5">
     <border>
@@ -265,7 +278,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -285,37 +298,44 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -593,8 +613,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F17"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+    <sheetView tabSelected="1" topLeftCell="A9" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -606,18 +626,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
-      <c r="B1" s="8" t="s">
+      <c r="B1" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="8"/>
-      <c r="D1" s="8"/>
-      <c r="E1" s="8"/>
+      <c r="C1" s="21"/>
+      <c r="D1" s="21"/>
+      <c r="E1" s="21"/>
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="13" t="s">
+      <c r="B2" s="12" t="s">
         <v>2</v>
       </c>
       <c r="C2" s="2" t="s">
@@ -631,13 +651,13 @@
       </c>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="10" t="s">
+      <c r="A3" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="14"/>
-      <c r="C3" s="11"/>
-      <c r="D3" s="11"/>
-      <c r="E3" s="12"/>
+      <c r="B3" s="13"/>
+      <c r="C3" s="10"/>
+      <c r="D3" s="10"/>
+      <c r="E3" s="11"/>
       <c r="F3" t="s">
         <v>7</v>
       </c>
@@ -646,16 +666,16 @@
       <c r="A4" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="15" t="s">
-        <v>9</v>
-      </c>
-      <c r="C4" s="15" t="s">
-        <v>10</v>
-      </c>
-      <c r="D4" s="15" t="s">
-        <v>9</v>
-      </c>
-      <c r="E4" s="15" t="s">
+      <c r="B4" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="E4" s="14" t="s">
         <v>10</v>
       </c>
       <c r="F4" t="s">
@@ -666,16 +686,16 @@
       <c r="A5" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="15" t="s">
-        <v>9</v>
-      </c>
-      <c r="C5" s="18" t="s">
+      <c r="B5" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" s="17" t="s">
         <v>30</v>
       </c>
-      <c r="D5" s="18" t="s">
+      <c r="D5" s="17" t="s">
         <v>30</v>
       </c>
-      <c r="E5" s="17" t="s">
+      <c r="E5" s="16" t="s">
         <v>31</v>
       </c>
       <c r="F5" t="s">
@@ -686,16 +706,16 @@
       <c r="A6" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="B6" s="15" t="s">
-        <v>9</v>
-      </c>
-      <c r="C6" s="15" t="s">
-        <v>10</v>
-      </c>
-      <c r="D6" s="15" t="s">
-        <v>10</v>
-      </c>
-      <c r="E6" s="15" t="s">
+      <c r="B6" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="D6" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="E6" s="14" t="s">
         <v>10</v>
       </c>
     </row>
@@ -703,16 +723,16 @@
       <c r="A7" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="B7" s="15" t="s">
-        <v>9</v>
-      </c>
-      <c r="C7" s="15" t="s">
-        <v>10</v>
-      </c>
-      <c r="D7" s="15" t="s">
-        <v>10</v>
-      </c>
-      <c r="E7" s="15" t="s">
+      <c r="B7" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="D7" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="E7" s="14" t="s">
         <v>10</v>
       </c>
     </row>
@@ -720,31 +740,31 @@
       <c r="A8" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="B8" s="15" t="s">
-        <v>9</v>
-      </c>
-      <c r="C8" s="15" t="s">
-        <v>10</v>
-      </c>
-      <c r="D8" s="15" t="s">
-        <v>10</v>
-      </c>
-      <c r="E8" s="15" t="s">
+      <c r="B8" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="C8" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="D8" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="E8" s="14" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="9" spans="1:6">
-      <c r="A9" s="9"/>
-      <c r="B9" s="16"/>
-      <c r="C9" s="9"/>
-      <c r="D9" s="9"/>
-      <c r="E9" s="9"/>
+      <c r="A9" s="8"/>
+      <c r="B9" s="15"/>
+      <c r="C9" s="8"/>
+      <c r="D9" s="8"/>
+      <c r="E9" s="8"/>
     </row>
     <row r="10" spans="1:6" ht="60">
       <c r="A10" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="B10" s="15" t="s">
+      <c r="B10" s="14" t="s">
         <v>9</v>
       </c>
       <c r="C10" s="4" t="s">
@@ -761,16 +781,16 @@
       <c r="A11" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="B11" s="15" t="s">
-        <v>9</v>
-      </c>
-      <c r="C11" s="4" t="s">
+      <c r="B11" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="C11" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="D11" s="5" t="s">
+      <c r="D11" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="E11" s="6" t="s">
+      <c r="E11" s="23" t="s">
         <v>24</v>
       </c>
     </row>
@@ -778,16 +798,16 @@
       <c r="A12" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="B12" s="15" t="s">
-        <v>9</v>
-      </c>
-      <c r="C12" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="D12" s="5" t="s">
+      <c r="B12" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="C12" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="D12" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="E12" s="15" t="s">
+      <c r="E12" s="14" t="s">
         <v>10</v>
       </c>
     </row>
@@ -795,16 +815,16 @@
       <c r="A13" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="B13" s="15" t="s">
-        <v>9</v>
-      </c>
-      <c r="C13" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="D13" s="5" t="s">
+      <c r="B13" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="C13" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="D13" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="E13" s="15" t="s">
+      <c r="E13" s="14" t="s">
         <v>10</v>
       </c>
     </row>
@@ -812,19 +832,19 @@
       <c r="A14" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="B14" s="15" t="s">
-        <v>9</v>
-      </c>
-      <c r="C14" s="15" t="s">
-        <v>9</v>
-      </c>
-      <c r="D14" s="15" t="s">
+      <c r="B14" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="C14" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="D14" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="E14" s="20" t="s">
+      <c r="E14" s="19" t="s">
         <v>13</v>
       </c>
-      <c r="F14" s="19" t="s">
+      <c r="F14" s="18" t="s">
         <v>32</v>
       </c>
     </row>
@@ -832,13 +852,13 @@
       <c r="B15" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="D15" s="19" t="s">
+      <c r="D15" s="18" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="17" spans="5:6">
-      <c r="E17" s="21"/>
-      <c r="F17" s="19" t="s">
+      <c r="E17" s="20"/>
+      <c r="F17" s="22" t="s">
         <v>33</v>
       </c>
     </row>

--- a/Documents/teves user.xlsx
+++ b/Documents/teves user.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\GitHub\TEVES-Laravel\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2EBA4097-1917-467B-B02A-47472E5B162E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9362E631-7F13-4CC3-B3F4-3558615297CE}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="27945" windowHeight="12180" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7545" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -131,7 +131,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6">
+  <fonts count="8">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -175,8 +175,24 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="7">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -207,12 +223,6 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF92D050"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
   <borders count="5">
     <border>
@@ -278,7 +288,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -288,12 +298,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -318,22 +322,25 @@
     <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -613,8 +620,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -626,18 +633,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
-      <c r="B1" s="21" t="s">
+      <c r="B1" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="21"/>
-      <c r="D1" s="21"/>
-      <c r="E1" s="21"/>
+      <c r="C1" s="20"/>
+      <c r="D1" s="20"/>
+      <c r="E1" s="20"/>
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="12" t="s">
+      <c r="B2" s="10" t="s">
         <v>2</v>
       </c>
       <c r="C2" s="2" t="s">
@@ -651,13 +658,13 @@
       </c>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="9" t="s">
+      <c r="A3" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="13"/>
-      <c r="C3" s="10"/>
-      <c r="D3" s="10"/>
-      <c r="E3" s="11"/>
+      <c r="B3" s="11"/>
+      <c r="C3" s="8"/>
+      <c r="D3" s="8"/>
+      <c r="E3" s="9"/>
       <c r="F3" t="s">
         <v>7</v>
       </c>
@@ -666,16 +673,16 @@
       <c r="A4" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="14" t="s">
-        <v>9</v>
-      </c>
-      <c r="C4" s="14" t="s">
-        <v>10</v>
-      </c>
-      <c r="D4" s="14" t="s">
-        <v>9</v>
-      </c>
-      <c r="E4" s="14" t="s">
+      <c r="B4" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" s="21" t="s">
+        <v>9</v>
+      </c>
+      <c r="E4" s="12" t="s">
         <v>10</v>
       </c>
       <c r="F4" t="s">
@@ -686,16 +693,16 @@
       <c r="A5" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="14" t="s">
-        <v>9</v>
-      </c>
-      <c r="C5" s="17" t="s">
+      <c r="B5" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" s="22" t="s">
         <v>30</v>
       </c>
-      <c r="D5" s="17" t="s">
+      <c r="D5" s="22" t="s">
         <v>30</v>
       </c>
-      <c r="E5" s="16" t="s">
+      <c r="E5" s="14" t="s">
         <v>31</v>
       </c>
       <c r="F5" t="s">
@@ -706,16 +713,16 @@
       <c r="A6" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="B6" s="14" t="s">
-        <v>9</v>
-      </c>
-      <c r="C6" s="14" t="s">
-        <v>10</v>
-      </c>
-      <c r="D6" s="14" t="s">
-        <v>10</v>
-      </c>
-      <c r="E6" s="14" t="s">
+      <c r="B6" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="D6" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="E6" s="12" t="s">
         <v>10</v>
       </c>
     </row>
@@ -723,16 +730,16 @@
       <c r="A7" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="B7" s="14" t="s">
-        <v>9</v>
-      </c>
-      <c r="C7" s="14" t="s">
-        <v>10</v>
-      </c>
-      <c r="D7" s="14" t="s">
-        <v>10</v>
-      </c>
-      <c r="E7" s="14" t="s">
+      <c r="B7" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="D7" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="E7" s="12" t="s">
         <v>10</v>
       </c>
     </row>
@@ -740,40 +747,40 @@
       <c r="A8" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="B8" s="14" t="s">
-        <v>9</v>
-      </c>
-      <c r="C8" s="14" t="s">
-        <v>10</v>
-      </c>
-      <c r="D8" s="14" t="s">
-        <v>10</v>
-      </c>
-      <c r="E8" s="14" t="s">
+      <c r="B8" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C8" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="D8" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="E8" s="12" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="9" spans="1:6">
-      <c r="A9" s="8"/>
-      <c r="B9" s="15"/>
-      <c r="C9" s="8"/>
-      <c r="D9" s="8"/>
-      <c r="E9" s="8"/>
+      <c r="A9" s="6"/>
+      <c r="B9" s="13"/>
+      <c r="C9" s="6"/>
+      <c r="D9" s="6"/>
+      <c r="E9" s="6"/>
     </row>
     <row r="10" spans="1:6" ht="60">
       <c r="A10" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="B10" s="14" t="s">
-        <v>9</v>
-      </c>
-      <c r="C10" s="4" t="s">
+      <c r="B10" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C10" s="21" t="s">
         <v>19</v>
       </c>
-      <c r="D10" s="5" t="s">
+      <c r="D10" s="23" t="s">
         <v>20</v>
       </c>
-      <c r="E10" s="6" t="s">
+      <c r="E10" s="4" t="s">
         <v>21</v>
       </c>
     </row>
@@ -781,16 +788,16 @@
       <c r="A11" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="B11" s="14" t="s">
-        <v>9</v>
-      </c>
-      <c r="C11" s="14" t="s">
+      <c r="B11" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C11" s="21" t="s">
         <v>23</v>
       </c>
-      <c r="D11" s="24" t="s">
+      <c r="D11" s="23" t="s">
         <v>20</v>
       </c>
-      <c r="E11" s="23" t="s">
+      <c r="E11" s="19" t="s">
         <v>24</v>
       </c>
     </row>
@@ -798,16 +805,16 @@
       <c r="A12" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="B12" s="14" t="s">
-        <v>9</v>
-      </c>
-      <c r="C12" s="14" t="s">
-        <v>10</v>
-      </c>
-      <c r="D12" s="24" t="s">
+      <c r="B12" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C12" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="D12" s="23" t="s">
         <v>20</v>
       </c>
-      <c r="E12" s="14" t="s">
+      <c r="E12" s="12" t="s">
         <v>10</v>
       </c>
     </row>
@@ -815,16 +822,16 @@
       <c r="A13" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="B13" s="14" t="s">
-        <v>9</v>
-      </c>
-      <c r="C13" s="14" t="s">
-        <v>10</v>
-      </c>
-      <c r="D13" s="24" t="s">
+      <c r="B13" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C13" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="D13" s="23" t="s">
         <v>20</v>
       </c>
-      <c r="E13" s="14" t="s">
+      <c r="E13" s="12" t="s">
         <v>10</v>
       </c>
     </row>
@@ -832,33 +839,33 @@
       <c r="A14" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="B14" s="14" t="s">
-        <v>9</v>
-      </c>
-      <c r="C14" s="14" t="s">
-        <v>9</v>
-      </c>
-      <c r="D14" s="14" t="s">
+      <c r="B14" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C14" s="21" t="s">
+        <v>9</v>
+      </c>
+      <c r="D14" s="21" t="s">
         <v>28</v>
       </c>
-      <c r="E14" s="19" t="s">
+      <c r="E14" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="F14" s="18" t="s">
+      <c r="F14" s="15" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="15" spans="1:6">
-      <c r="B15" s="7" t="s">
+      <c r="B15" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="D15" s="18" t="s">
+      <c r="D15" s="15" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="17" spans="5:6">
-      <c r="E17" s="20"/>
-      <c r="F17" s="22" t="s">
+      <c r="E17" s="17"/>
+      <c r="F17" s="18" t="s">
         <v>33</v>
       </c>
     </row>

--- a/Documents/teves user.xlsx
+++ b/Documents/teves user.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="20415"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28925"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\GitHub\TEVES-Laravel\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Danny\Documents\GitHub\Teves_Billing_System\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9362E631-7F13-4CC3-B3F4-3558615297CE}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E806F27A-FBA2-4C45-A6B6-EE4D6C6D069F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7545" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-4395" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="36">
   <si>
     <t>User Type</t>
   </si>
@@ -125,6 +125,9 @@
   </si>
   <si>
     <t>.</t>
+  </si>
+  <si>
+    <t>SUAdmin</t>
   </si>
 </sst>
 </file>
@@ -306,13 +309,13 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -331,17 +334,17 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -618,260 +621,295 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F17"/>
+  <dimension ref="A1:G17"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="2" width="17" customWidth="1"/>
-    <col min="3" max="3" width="22.7109375" customWidth="1"/>
-    <col min="4" max="4" width="19" customWidth="1"/>
-    <col min="5" max="5" width="23.5703125" customWidth="1"/>
+    <col min="1" max="3" width="17" customWidth="1"/>
+    <col min="4" max="4" width="22.6640625" customWidth="1"/>
+    <col min="5" max="5" width="19" customWidth="1"/>
+    <col min="6" max="6" width="23.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
-      <c r="B1" s="20" t="s">
+    <row r="1" spans="1:7">
+      <c r="C1" s="23" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="20"/>
-      <c r="D1" s="20"/>
-      <c r="E1" s="20"/>
-    </row>
-    <row r="2" spans="1:6">
+      <c r="D1" s="23"/>
+      <c r="E1" s="23"/>
+      <c r="F1" s="23"/>
+    </row>
+    <row r="2" spans="1:7">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="10" t="s">
+      <c r="B2" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C2" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="D2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="E2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="F2" s="2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:7">
       <c r="A3" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="11"/>
-      <c r="C3" s="8"/>
+      <c r="B3" s="8"/>
+      <c r="C3" s="11"/>
       <c r="D3" s="8"/>
-      <c r="E3" s="9"/>
-      <c r="F3" t="s">
+      <c r="E3" s="8"/>
+      <c r="F3" s="9"/>
+      <c r="G3" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:7">
       <c r="A4" s="3" t="s">
         <v>8</v>
       </c>
       <c r="B4" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="21" t="s">
-        <v>10</v>
-      </c>
-      <c r="D4" s="21" t="s">
-        <v>9</v>
-      </c>
-      <c r="E4" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="F4" t="s">
+      <c r="C4" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4" s="20" t="s">
+        <v>10</v>
+      </c>
+      <c r="E4" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="F4" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="G4" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="30">
+    <row r="5" spans="1:7" ht="28.8">
       <c r="A5" s="3" t="s">
         <v>12</v>
       </c>
       <c r="B5" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="22" t="s">
+      <c r="C5" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="D5" s="21" t="s">
         <v>30</v>
       </c>
-      <c r="D5" s="22" t="s">
+      <c r="E5" s="21" t="s">
         <v>30</v>
       </c>
-      <c r="E5" s="14" t="s">
+      <c r="F5" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="F5" t="s">
+      <c r="G5" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:7">
       <c r="A6" s="3" t="s">
         <v>15</v>
       </c>
       <c r="B6" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="C6" s="21" t="s">
-        <v>10</v>
-      </c>
-      <c r="D6" s="21" t="s">
-        <v>10</v>
-      </c>
-      <c r="E6" s="12" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
+      <c r="C6" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="D6" s="20" t="s">
+        <v>10</v>
+      </c>
+      <c r="E6" s="20" t="s">
+        <v>10</v>
+      </c>
+      <c r="F6" s="12" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
       <c r="A7" s="3" t="s">
         <v>16</v>
       </c>
       <c r="B7" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="21" t="s">
-        <v>10</v>
-      </c>
-      <c r="D7" s="21" t="s">
-        <v>10</v>
-      </c>
-      <c r="E7" s="12" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6">
+      <c r="C7" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="D7" s="20" t="s">
+        <v>10</v>
+      </c>
+      <c r="E7" s="20" t="s">
+        <v>10</v>
+      </c>
+      <c r="F7" s="12" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
       <c r="A8" s="3" t="s">
         <v>17</v>
       </c>
       <c r="B8" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="C8" s="21" t="s">
-        <v>10</v>
-      </c>
-      <c r="D8" s="21" t="s">
-        <v>10</v>
-      </c>
-      <c r="E8" s="12" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6">
+      <c r="C8" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="D8" s="20" t="s">
+        <v>10</v>
+      </c>
+      <c r="E8" s="20" t="s">
+        <v>10</v>
+      </c>
+      <c r="F8" s="12" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
       <c r="A9" s="6"/>
       <c r="B9" s="13"/>
-      <c r="C9" s="6"/>
+      <c r="C9" s="13"/>
       <c r="D9" s="6"/>
       <c r="E9" s="6"/>
-    </row>
-    <row r="10" spans="1:6" ht="60">
+      <c r="F9" s="6"/>
+    </row>
+    <row r="10" spans="1:7" ht="43.2">
       <c r="A10" s="3" t="s">
         <v>18</v>
       </c>
       <c r="B10" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="C10" s="21" t="s">
+      <c r="C10" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="D10" s="20" t="s">
         <v>19</v>
       </c>
-      <c r="D10" s="23" t="s">
+      <c r="E10" s="22" t="s">
         <v>20</v>
       </c>
-      <c r="E10" s="4" t="s">
+      <c r="F10" s="4" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="30">
+    <row r="11" spans="1:7" ht="28.8">
       <c r="A11" s="3" t="s">
         <v>22</v>
       </c>
       <c r="B11" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="C11" s="21" t="s">
+      <c r="C11" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="D11" s="20" t="s">
         <v>23</v>
       </c>
-      <c r="D11" s="23" t="s">
+      <c r="E11" s="22" t="s">
         <v>20</v>
       </c>
-      <c r="E11" s="19" t="s">
+      <c r="F11" s="19" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="30">
+    <row r="12" spans="1:7" ht="28.8">
       <c r="A12" s="3" t="s">
         <v>25</v>
       </c>
       <c r="B12" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="C12" s="21" t="s">
-        <v>10</v>
-      </c>
-      <c r="D12" s="23" t="s">
+      <c r="C12" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="D12" s="20" t="s">
+        <v>10</v>
+      </c>
+      <c r="E12" s="22" t="s">
         <v>20</v>
       </c>
-      <c r="E12" s="12" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" ht="30">
+      <c r="F12" s="12" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="28.8">
       <c r="A13" s="3" t="s">
         <v>26</v>
       </c>
       <c r="B13" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="C13" s="21" t="s">
-        <v>10</v>
-      </c>
-      <c r="D13" s="23" t="s">
+      <c r="C13" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="D13" s="20" t="s">
+        <v>10</v>
+      </c>
+      <c r="E13" s="22" t="s">
         <v>20</v>
       </c>
-      <c r="E13" s="12" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" ht="30">
+      <c r="F13" s="12" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="28.8">
       <c r="A14" s="3" t="s">
         <v>27</v>
       </c>
       <c r="B14" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="C14" s="21" t="s">
-        <v>9</v>
-      </c>
-      <c r="D14" s="21" t="s">
+      <c r="C14" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="D14" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="E14" s="20" t="s">
         <v>28</v>
       </c>
-      <c r="E14" s="16" t="s">
+      <c r="F14" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="F14" s="15" t="s">
+      <c r="G14" s="15" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="15" spans="1:6">
-      <c r="B15" s="5" t="s">
+    <row r="15" spans="1:7">
+      <c r="C15" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="D15" s="15" t="s">
+      <c r="E15" s="15" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="17" spans="5:6">
-      <c r="E17" s="17"/>
-      <c r="F17" s="18" t="s">
+    <row r="17" spans="6:7">
+      <c r="F17" s="17"/>
+      <c r="G17" s="18" t="s">
         <v>33</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="B1:E1"/>
+    <mergeCell ref="C1:F1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/Documents/teves user.xlsx
+++ b/Documents/teves user.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="29127"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Danny\Documents\GitHub\Teves_Billing_System\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E806F27A-FBA2-4C45-A6B6-EE4D6C6D069F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61791FE0-55EA-4EDC-A2C9-0B1F2F1021FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-4395" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-4410" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="35">
   <si>
     <t>User Type</t>
   </si>
@@ -85,9 +85,6 @@
     <t>YES (cannot delete, edit after 24hours)</t>
   </si>
   <si>
-    <t>YES (For encode only , CAN edit or delete within 1hour from encode)</t>
-  </si>
-  <si>
     <t>Receivable</t>
   </si>
   <si>
@@ -112,15 +109,6 @@
     <t>FOR SALES ORDER UNDER RECEIVABLE ONLY, ACCOUNTING STAFF CAN VIEW SALES ORDER  AND PURCHASE ORDER</t>
   </si>
   <si>
-    <t>YES - Must be NO</t>
-  </si>
-  <si>
-    <t>Yes (Only for designated branch)  - Must be NO</t>
-  </si>
-  <si>
-    <t>Encoded kng alin lang ang enencode nya sya lng maka pag edit</t>
-  </si>
-  <si>
     <t>For Verification if I limit ng one our ang pag edit or delete</t>
   </si>
   <si>
@@ -128,6 +116,15 @@
   </si>
   <si>
     <t>SUAdmin</t>
+  </si>
+  <si>
+    <t>For Encoder kng alin lang ang enencode nya yun lng and ma edit nya sa loob ng One Day</t>
+  </si>
+  <si>
+    <t>Data Encoding</t>
+  </si>
+  <si>
+    <t>YES (For encoder only , CAN edit or delete within 1hour from encode)</t>
   </si>
 </sst>
 </file>
@@ -158,6 +155,13 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1" tint="4.9989318521683403E-2"/>
       <name val="Calibri"/>
       <charset val="134"/>
@@ -169,13 +173,6 @@
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -227,7 +224,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -266,22 +263,7 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
+      <top/>
       <bottom style="thin">
         <color auto="1"/>
       </bottom>
@@ -291,7 +273,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -302,38 +284,14 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -343,8 +301,22 @@
     <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -624,7 +596,7 @@
   <dimension ref="A1:G17"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+      <selection activeCell="K4" sqref="K4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
@@ -633,24 +605,27 @@
     <col min="4" max="4" width="22.6640625" customWidth="1"/>
     <col min="5" max="5" width="19" customWidth="1"/>
     <col min="6" max="6" width="23.5546875" customWidth="1"/>
+    <col min="7" max="7" width="26.109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="C1" s="23" t="s">
+      <c r="A1" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="23"/>
-      <c r="E1" s="23"/>
-      <c r="F1" s="23"/>
+      <c r="B1" s="17"/>
+      <c r="C1" s="17"/>
+      <c r="D1" s="17"/>
+      <c r="E1" s="17"/>
+      <c r="F1" s="17"/>
     </row>
     <row r="2" spans="1:7">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="C2" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="C2" s="6" t="s">
         <v>2</v>
       </c>
       <c r="D2" s="2" t="s">
@@ -663,39 +638,34 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
-      <c r="A3" s="7" t="s">
+    <row r="3" spans="1:7" ht="43.2">
+      <c r="A3" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="8"/>
-      <c r="C3" s="11"/>
-      <c r="D3" s="8"/>
-      <c r="E3" s="8"/>
-      <c r="F3" s="9"/>
-      <c r="G3" t="s">
+      <c r="G3" s="18" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:7" ht="43.2">
       <c r="A4" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="C4" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="D4" s="20" t="s">
-        <v>10</v>
-      </c>
-      <c r="E4" s="20" t="s">
-        <v>9</v>
-      </c>
-      <c r="F4" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="G4" t="s">
+      <c r="B4" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="E4" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="F4" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="G4" s="18" t="s">
         <v>11</v>
       </c>
     </row>
@@ -703,22 +673,22 @@
       <c r="A5" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="C5" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="D5" s="21" t="s">
-        <v>30</v>
-      </c>
-      <c r="E5" s="21" t="s">
-        <v>30</v>
+      <c r="B5" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="D5" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="E5" s="11" t="s">
+        <v>10</v>
       </c>
       <c r="F5" s="14" t="s">
-        <v>31</v>
-      </c>
-      <c r="G5" t="s">
+        <v>10</v>
+      </c>
+      <c r="G5" s="18" t="s">
         <v>14</v>
       </c>
     </row>
@@ -726,19 +696,19 @@
       <c r="A6" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="B6" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="C6" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="D6" s="20" t="s">
-        <v>10</v>
-      </c>
-      <c r="E6" s="20" t="s">
-        <v>10</v>
-      </c>
-      <c r="F6" s="12" t="s">
+      <c r="B6" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="D6" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="E6" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="F6" s="10" t="s">
         <v>10</v>
       </c>
     </row>
@@ -746,19 +716,19 @@
       <c r="A7" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="B7" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="C7" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="D7" s="20" t="s">
-        <v>10</v>
-      </c>
-      <c r="E7" s="20" t="s">
-        <v>10</v>
-      </c>
-      <c r="F7" s="12" t="s">
+      <c r="B7" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="D7" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="E7" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="F7" s="10" t="s">
         <v>10</v>
       </c>
     </row>
@@ -766,150 +736,152 @@
       <c r="A8" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="B8" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="C8" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="D8" s="20" t="s">
-        <v>10</v>
-      </c>
-      <c r="E8" s="20" t="s">
-        <v>10</v>
-      </c>
-      <c r="F8" s="12" t="s">
+      <c r="B8" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="C8" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="D8" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="E8" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="F8" s="10" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="9" spans="1:7">
-      <c r="A9" s="6"/>
-      <c r="B9" s="13"/>
-      <c r="C9" s="13"/>
-      <c r="D9" s="6"/>
-      <c r="E9" s="6"/>
-      <c r="F9" s="6"/>
+      <c r="A9" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="B9" s="15"/>
+      <c r="C9" s="15"/>
+      <c r="D9" s="15"/>
+      <c r="E9" s="15"/>
+      <c r="F9" s="15"/>
     </row>
     <row r="10" spans="1:7" ht="43.2">
       <c r="A10" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="B10" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="C10" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="D10" s="20" t="s">
+      <c r="B10" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="C10" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="D10" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="E10" s="22" t="s">
+      <c r="E10" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="F10" s="4" t="s">
-        <v>21</v>
+      <c r="F10" s="12" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="28.8">
       <c r="A11" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B11" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="C11" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="D11" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="B11" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="C11" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="D11" s="20" t="s">
+      <c r="E11" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="F11" s="12" t="s">
         <v>23</v>
-      </c>
-      <c r="E11" s="22" t="s">
-        <v>20</v>
-      </c>
-      <c r="F11" s="19" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="28.8">
       <c r="A12" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="B12" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="C12" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="D12" s="20" t="s">
-        <v>10</v>
-      </c>
-      <c r="E12" s="22" t="s">
+        <v>24</v>
+      </c>
+      <c r="B12" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="C12" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="D12" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="E12" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="F12" s="12" t="s">
+      <c r="F12" s="10" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="13" spans="1:7" ht="28.8">
       <c r="A13" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B13" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="C13" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="D13" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="E13" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="F13" s="10" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="43.2">
+      <c r="A14" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="B13" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="C13" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="D13" s="20" t="s">
-        <v>10</v>
-      </c>
-      <c r="E13" s="22" t="s">
-        <v>20</v>
-      </c>
-      <c r="F13" s="12" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" ht="28.8">
-      <c r="A14" s="3" t="s">
+      <c r="B14" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="C14" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="D14" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="E14" s="10" t="s">
         <v>27</v>
-      </c>
-      <c r="B14" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="C14" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="D14" s="20" t="s">
-        <v>9</v>
-      </c>
-      <c r="E14" s="20" t="s">
-        <v>28</v>
       </c>
       <c r="F14" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="G14" s="15" t="s">
+      <c r="G14" s="19" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="15" spans="1:7">
-      <c r="C15" s="5" t="s">
+      <c r="C15" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="17" spans="6:7">
+      <c r="F17" s="8"/>
+      <c r="G17" s="9" t="s">
         <v>29</v>
-      </c>
-      <c r="E15" s="15" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="17" spans="6:7">
-      <c r="F17" s="17"/>
-      <c r="G17" s="18" t="s">
-        <v>33</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="A1:F1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/Documents/teves user.xlsx
+++ b/Documents/teves user.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Danny\Documents\GitHub\Teves_Billing_System\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61791FE0-55EA-4EDC-A2C9-0B1F2F1021FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DFB3F0C0-FEE2-4135-9F3C-C7DB14114016}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-4410" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -309,14 +309,14 @@
     <xf numFmtId="0" fontId="6" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -596,7 +596,7 @@
   <dimension ref="A1:G17"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="K4" sqref="K4"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
@@ -609,14 +609,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="A1" s="17" t="s">
+      <c r="A1" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="17"/>
-      <c r="C1" s="17"/>
-      <c r="D1" s="17"/>
-      <c r="E1" s="17"/>
-      <c r="F1" s="17"/>
+      <c r="B1" s="19"/>
+      <c r="C1" s="19"/>
+      <c r="D1" s="19"/>
+      <c r="E1" s="19"/>
+      <c r="F1" s="19"/>
     </row>
     <row r="2" spans="1:7">
       <c r="A2" s="1" t="s">
@@ -642,7 +642,7 @@
       <c r="A3" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="G3" s="18" t="s">
+      <c r="G3" s="17" t="s">
         <v>7</v>
       </c>
     </row>
@@ -665,7 +665,7 @@
       <c r="F4" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="G4" s="18" t="s">
+      <c r="G4" s="17" t="s">
         <v>11</v>
       </c>
     </row>
@@ -688,7 +688,7 @@
       <c r="F5" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="G5" s="18" t="s">
+      <c r="G5" s="17" t="s">
         <v>14</v>
       </c>
     </row>
@@ -853,7 +853,7 @@
         <v>9</v>
       </c>
       <c r="D14" s="10" t="s">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="E14" s="10" t="s">
         <v>27</v>
@@ -861,7 +861,7 @@
       <c r="F14" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="G14" s="19" t="s">
+      <c r="G14" s="18" t="s">
         <v>32</v>
       </c>
     </row>
